--- a/doors_detection_long_term/scripts/results/detr_complete_metric_simulation_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_complete_metric_simulation_0.5.xlsx
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -15971,7 +15971,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -17951,7 +17951,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -18781,7 +18781,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -19691,7 +19691,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
     </row>
